--- a/input-TECH-v2.xlsx
+++ b/input-TECH-v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="699"/>
+    <workbookView xWindow="-26620" yWindow="-1720" windowWidth="25600" windowHeight="15600" tabRatio="699"/>
   </bookViews>
   <sheets>
     <sheet name="IMPACT-TECH" sheetId="10" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Management</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t># of samples</t>
-  </si>
-  <si>
-    <t>A3:AG14</t>
   </si>
 </sst>
 </file>
@@ -738,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,9 +785,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="D1" s="17"/>
       <c r="F1" s="3"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>

--- a/input-TECH-v2.xlsx
+++ b/input-TECH-v2.xlsx
@@ -33,7 +33,7 @@
     <author>François Diaz-Maurin</author>
   </authors>
   <commentList>
-    <comment ref="AE3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Management</t>
   </si>
@@ -110,127 +110,127 @@
     <t>Nb casks</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Nb load./unload.</t>
+  </si>
+  <si>
+    <t>Loading/unloading to/from transportation casks</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>IN-STATE INTERIM</t>
+  </si>
+  <si>
+    <t>OFF-STATE INTERIM</t>
+  </si>
+  <si>
+    <t>IN-STATE DIRECT DISPOSAL</t>
+  </si>
+  <si>
+    <t>OFF-STATE DIRECT DISPOSAL</t>
+  </si>
+  <si>
+    <t>IN-STATE INTERIM &amp; DISPOSAL</t>
+  </si>
+  <si>
+    <t>OFF-STATE INTERIM &amp; DISPOSAL</t>
+  </si>
+  <si>
+    <t>IN-STATE INTERIM &amp; OFF-STATE DISP</t>
+  </si>
+  <si>
+    <t>Multi-criteria impact matrix of long-term storage options at SONGS - Technical view</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Indifference threshold</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Repackaging of canisters during onsite storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repackaging of storage casks during onsite storage </t>
+  </si>
+  <si>
+    <t>Repackaging of canisters before transport</t>
+  </si>
+  <si>
+    <t>Repackaging of canisters during offsite storage</t>
+  </si>
+  <si>
+    <t>Repackaging of storage casks during offsite storage</t>
+  </si>
+  <si>
+    <t>Total cumulative individual worker dose of normal operations during onsite storage</t>
+  </si>
+  <si>
+    <t>Total cumulative individual worker dose of normal operations during interim storage</t>
+  </si>
+  <si>
+    <t>Total cumulative individual worker dose from loading/unloading casks for transport</t>
+  </si>
+  <si>
+    <t>Total collective dose to workers during transport</t>
+  </si>
+  <si>
+    <t>Total individual worker dose from normal surface operations during geologic disposal</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t># of samples</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
     <t>Criterion</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Nb load./unload.</t>
-  </si>
-  <si>
-    <t>Loading/unloading to/from transportation casks</t>
-  </si>
-  <si>
-    <t>Correlation</t>
-  </si>
-  <si>
-    <t>IN-STATE INTERIM</t>
-  </si>
-  <si>
-    <t>OFF-STATE INTERIM</t>
-  </si>
-  <si>
-    <t>IN-STATE DIRECT DISPOSAL</t>
-  </si>
-  <si>
-    <t>OFF-STATE DIRECT DISPOSAL</t>
-  </si>
-  <si>
-    <t>IN-STATE INTERIM &amp; DISPOSAL</t>
-  </si>
-  <si>
-    <t>OFF-STATE INTERIM &amp; DISPOSAL</t>
-  </si>
-  <si>
-    <t>IN-STATE INTERIM &amp; OFF-STATE DISP</t>
-  </si>
-  <si>
-    <t>Multi-criteria impact matrix of long-term storage options at SONGS - Technical view</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>Indifference threshold</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Repackaging of canisters during onsite storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repackaging of storage casks during onsite storage </t>
-  </si>
-  <si>
-    <t>Repackaging of canisters before transport</t>
-  </si>
-  <si>
-    <t>Repackaging of canisters during offsite storage</t>
-  </si>
-  <si>
-    <t>Repackaging of storage casks during offsite storage</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Total cumulative individual worker dose of normal operations during onsite storage</t>
-  </si>
-  <si>
-    <t>Total cumulative individual worker dose of normal operations during interim storage</t>
-  </si>
-  <si>
-    <t>Total cumulative individual worker dose from loading/unloading casks for transport</t>
-  </si>
-  <si>
-    <t>Total collective dose to workers during transport</t>
-  </si>
-  <si>
-    <t>Total individual worker dose from normal surface operations during geologic disposal</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t># of samples</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +280,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,9 +358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -424,8 +442,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -748,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -759,9 +779,8 @@
     <col min="3" max="3" width="81.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="11" customWidth="1"/>
     <col min="10" max="11" width="7.33203125" style="7" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="2" customWidth="1"/>
     <col min="13" max="14" width="7.33203125" style="7" customWidth="1"/>
@@ -775,20 +794,18 @@
     <col min="25" max="26" width="7.33203125" style="7" customWidth="1"/>
     <col min="27" max="27" width="7.33203125" style="2" customWidth="1"/>
     <col min="28" max="29" width="7.33203125" style="7" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="3"/>
-    <col min="31" max="33" width="12.1640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" style="2" customWidth="1"/>
+    <col min="31" max="32" width="7.33203125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="3"/>
     <col min="34" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
       <c r="I1" s="3"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -810,40 +827,38 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
     </row>
     <row r="2" spans="1:34" s="14" customFormat="1" ht="30.75" customHeight="1">
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
       <c r="U2" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
       <c r="X2" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="29"/>
       <c r="Z2" s="29"/>
@@ -852,16 +867,21 @@
       </c>
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="28">
       <c r="A3" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>1</v>
@@ -870,89 +890,89 @@
         <v>2</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="L3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="O3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="R3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="U3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="15" t="s">
+      <c r="X3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AD3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="AG3" s="4"/>
       <c r="AH3" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -960,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>8</v>
@@ -971,23 +991,23 @@
       <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="22">
+        <v>82</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="H4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
         <v>246</v>
       </c>
-      <c r="G4" s="19">
+      <c r="J4" s="19">
         <v>123</v>
       </c>
-      <c r="H4" s="19">
+      <c r="K4" s="19">
         <v>492</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>88</v>
       </c>
       <c r="L4" s="19">
         <v>0</v>
@@ -999,13 +1019,13 @@
         <v>88</v>
       </c>
       <c r="O4" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P4" s="19">
         <v>0</v>
       </c>
       <c r="Q4" s="19">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="R4" s="19">
         <v>6</v>
@@ -1017,13 +1037,13 @@
         <v>246</v>
       </c>
       <c r="U4" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V4" s="19">
         <v>0</v>
       </c>
       <c r="W4" s="19">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="X4" s="19">
         <v>0</v>
@@ -1043,14 +1063,14 @@
       <c r="AC4" s="19">
         <v>88</v>
       </c>
-      <c r="AE4" s="22">
-        <v>82</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="AG4" s="22" t="b">
-        <v>0</v>
+      <c r="AD4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>88</v>
       </c>
       <c r="AH4" s="22">
         <v>400</v>
@@ -1058,10 +1078,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -1069,23 +1089,23 @@
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="23">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="H5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
         <v>24.6</v>
       </c>
-      <c r="G5" s="19">
+      <c r="J5" s="19">
         <v>12.3</v>
       </c>
-      <c r="H5" s="19">
+      <c r="K5" s="19">
         <v>49.2</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>8.8000000000000007</v>
       </c>
       <c r="L5" s="19">
         <v>0</v>
@@ -1097,13 +1117,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="O5" s="19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P5" s="19">
         <v>0</v>
       </c>
       <c r="Q5" s="19">
-        <v>24.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R5" s="19">
         <v>0.6</v>
@@ -1115,13 +1135,13 @@
         <v>24.6</v>
       </c>
       <c r="U5" s="19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V5" s="19">
         <v>0</v>
       </c>
       <c r="W5" s="19">
-        <v>8.8000000000000007</v>
+        <v>24.6</v>
       </c>
       <c r="X5" s="19">
         <v>0</v>
@@ -1141,14 +1161,14 @@
       <c r="AC5" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AE5" s="23">
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="AG5" s="22" t="b">
-        <v>0</v>
+      <c r="AD5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="19">
+        <v>8.8000000000000007</v>
       </c>
       <c r="AH5" s="22">
         <v>400.00000000000011</v>
@@ -1156,10 +1176,10 @@
     </row>
     <row r="6" spans="1:34">
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -1167,14 +1187,11 @@
       <c r="E6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0</v>
+      <c r="F6" s="22">
+        <v>18.756944444444446</v>
+      </c>
+      <c r="H6" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="I6" s="19">
         <v>0</v>
@@ -1183,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="19">
-        <v>112.54166666666667</v>
+        <v>0</v>
       </c>
       <c r="L6" s="19">
         <v>0</v>
@@ -1239,12 +1256,14 @@
       <c r="AC6" s="19">
         <v>112.54166666666667</v>
       </c>
-      <c r="AE6" s="22">
-        <v>18.756944444444446</v>
-      </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="22" t="b">
-        <v>1</v>
+      <c r="AD6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>112.54166666666667</v>
       </c>
       <c r="AH6" s="22">
         <v>400</v>
@@ -1252,34 +1271,32 @@
     </row>
     <row r="7" spans="1:34">
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
+      <c r="F7" s="22">
+        <v>108.66666666666667</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="I7" s="19">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="J7" s="19">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="K7" s="19">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="L7" s="19">
         <v>246</v>
@@ -1315,32 +1332,34 @@
         <v>246</v>
       </c>
       <c r="W7" s="19">
-        <v>652</v>
+        <v>326</v>
       </c>
       <c r="X7" s="19">
-        <v>492</v>
+        <v>246</v>
       </c>
       <c r="Y7" s="19">
-        <v>492</v>
+        <v>246</v>
       </c>
       <c r="Z7" s="19">
         <v>652</v>
       </c>
       <c r="AA7" s="19">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="AB7" s="19">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="AC7" s="19">
         <v>652</v>
       </c>
-      <c r="AE7" s="22">
-        <v>108.66666666666667</v>
-      </c>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="22" t="b">
-        <v>1</v>
+      <c r="AD7" s="19">
+        <v>246</v>
+      </c>
+      <c r="AE7" s="19">
+        <v>246</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>652</v>
       </c>
       <c r="AH7" s="22">
         <v>400</v>
@@ -1348,10 +1367,10 @@
     </row>
     <row r="8" spans="1:34">
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>8</v>
@@ -1359,23 +1378,20 @@
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="F8" s="22">
+        <v>67.333333333333329</v>
+      </c>
+      <c r="H8" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="J8" s="19">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="L8" s="19">
         <v>246</v>
@@ -1387,13 +1403,13 @@
         <v>404</v>
       </c>
       <c r="O8" s="19">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="P8" s="19">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="19">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
@@ -1405,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V8" s="19">
         <v>0</v>
       </c>
       <c r="W8" s="19">
-        <v>197.5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="19">
         <v>6</v>
@@ -1431,12 +1447,14 @@
       <c r="AC8" s="19">
         <v>197.5</v>
       </c>
-      <c r="AE8" s="22">
-        <v>67.333333333333329</v>
-      </c>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="22" t="b">
-        <v>0</v>
+      <c r="AD8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>197.5</v>
       </c>
       <c r="AH8" s="22">
         <v>400</v>
@@ -1444,10 +1462,10 @@
     </row>
     <row r="9" spans="1:34">
       <c r="B9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -1455,23 +1473,20 @@
       <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="F9" s="23">
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="H9" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <v>21.05</v>
+        <v>0</v>
       </c>
       <c r="J9" s="19">
-        <v>8.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K9" s="19">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="L9" s="19">
         <v>21.05</v>
@@ -1483,13 +1498,13 @@
         <v>44.4</v>
       </c>
       <c r="O9" s="19">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="P9" s="19">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q9" s="19">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
@@ -1507,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="19">
-        <v>8.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="X9" s="19">
         <v>0</v>
@@ -1525,14 +1540,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19">
         <v>19.75</v>
-      </c>
-      <c r="AE9" s="23">
-        <v>7.3999999999999995</v>
-      </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="22" t="b">
-        <v>0</v>
       </c>
       <c r="AH9" s="22">
         <v>400</v>
@@ -1543,10 +1560,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>5</v>
@@ -1554,23 +1571,23 @@
       <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="24">
+        <v>42.804312846701158</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="H10" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
         <v>188.2264911765335</v>
       </c>
-      <c r="G10" s="20">
+      <c r="J10" s="20">
         <v>135.65614184198367</v>
       </c>
-      <c r="H10" s="20">
+      <c r="K10" s="20">
         <v>271.46217659314192</v>
-      </c>
-      <c r="I10" s="20">
-        <v>31.213587359251484</v>
-      </c>
-      <c r="J10" s="20">
-        <v>16.647246591600791</v>
-      </c>
-      <c r="K10" s="20">
-        <v>98.385010595337349</v>
       </c>
       <c r="L10" s="20">
         <v>31.213587359251484</v>
@@ -1582,13 +1599,13 @@
         <v>98.385010595337349</v>
       </c>
       <c r="O10" s="20">
-        <v>55.915237983009199</v>
+        <v>31.213587359251484</v>
       </c>
       <c r="P10" s="20">
-        <v>14.636299512934926</v>
+        <v>16.647246591600791</v>
       </c>
       <c r="Q10" s="20">
-        <v>186.06996646088254</v>
+        <v>98.385010595337349</v>
       </c>
       <c r="R10" s="20">
         <v>55.915237983009199</v>
@@ -1600,13 +1617,13 @@
         <v>186.06996646088254</v>
       </c>
       <c r="U10" s="20">
-        <v>31.213587359251484</v>
+        <v>55.915237983009199</v>
       </c>
       <c r="V10" s="20">
-        <v>16.647246591600791</v>
+        <v>14.636299512934926</v>
       </c>
       <c r="W10" s="20">
-        <v>98.385010595337349</v>
+        <v>186.06996646088254</v>
       </c>
       <c r="X10" s="20">
         <v>31.213587359251484</v>
@@ -1626,14 +1643,14 @@
       <c r="AC10" s="20">
         <v>98.385010595337349</v>
       </c>
-      <c r="AE10" s="24">
-        <v>42.804312846701158</v>
-      </c>
-      <c r="AF10" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="AG10" s="24" t="b">
-        <v>0</v>
+      <c r="AD10" s="20">
+        <v>31.213587359251484</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>16.647246591600791</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>98.385010595337349</v>
       </c>
       <c r="AH10" s="24">
         <v>322.33425568694531</v>
@@ -1641,10 +1658,10 @@
     </row>
     <row r="11" spans="1:34">
       <c r="B11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>5</v>
@@ -1652,23 +1669,20 @@
       <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="F11" s="22">
+        <v>18.432631843244064</v>
+      </c>
+      <c r="H11" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>65.942414458198684</v>
+        <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>34.981121507539875</v>
+        <v>0</v>
       </c>
       <c r="K11" s="13">
-        <v>110.59579105946439</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
         <v>65.942414458198684</v>
@@ -1680,13 +1694,13 @@
         <v>110.59579105946439</v>
       </c>
       <c r="O11" s="13">
-        <v>0</v>
+        <v>65.942414458198684</v>
       </c>
       <c r="P11" s="13">
-        <v>0</v>
+        <v>34.981121507539875</v>
       </c>
       <c r="Q11" s="13">
-        <v>0</v>
+        <v>110.59579105946439</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -1698,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="U11" s="13">
-        <v>18.70681073240435</v>
+        <v>0</v>
       </c>
       <c r="V11" s="13">
-        <v>4.8834024425892553</v>
+        <v>0</v>
       </c>
       <c r="W11" s="13">
-        <v>52.860997784217616</v>
+        <v>0</v>
       </c>
       <c r="X11" s="13">
         <v>18.70681073240435</v>
@@ -1722,14 +1736,16 @@
         <v>4.8834024425892553</v>
       </c>
       <c r="AC11" s="13">
+        <v>52.860997784217616</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>18.70681073240435</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>4.8834024425892553</v>
+      </c>
+      <c r="AF11" s="13">
         <v>52.964378789812258</v>
-      </c>
-      <c r="AE11" s="22">
-        <v>18.432631843244064</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="22" t="b">
-        <v>0</v>
       </c>
       <c r="AH11" s="22">
         <v>400</v>
@@ -1737,10 +1753,10 @@
     </row>
     <row r="12" spans="1:34">
       <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>5</v>
@@ -1748,23 +1764,23 @@
       <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2.8580566538344852</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1.9053711025563238</v>
-      </c>
-      <c r="K12" s="5">
-        <v>5.0500079628728587</v>
+      <c r="F12" s="23">
+        <v>2.0518847990169338</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
       </c>
       <c r="L12" s="5">
         <v>2.8580566538344852</v>
@@ -1776,13 +1792,13 @@
         <v>5.0500079628728587</v>
       </c>
       <c r="O12" s="5">
-        <v>1.6213242004549777</v>
+        <v>2.8580566538344852</v>
       </c>
       <c r="P12" s="5">
-        <v>1.0808828003033188</v>
+        <v>1.9053711025563238</v>
       </c>
       <c r="Q12" s="5">
-        <v>2.8647788040559505</v>
+        <v>5.0500079628728587</v>
       </c>
       <c r="R12" s="5">
         <v>1.6213242004549777</v>
@@ -1794,40 +1810,40 @@
         <v>2.8647788040559505</v>
       </c>
       <c r="U12" s="5">
+        <v>1.6213242004549777</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1.0808828003033188</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2.8647788040559505</v>
+      </c>
+      <c r="X12" s="5">
         <v>3.4837982707235353</v>
       </c>
-      <c r="V12" s="5">
+      <c r="Y12" s="5">
         <v>2.3225321804823573</v>
-      </c>
-      <c r="W12" s="5">
-        <v>12.311308794101603</v>
-      </c>
-      <c r="X12" s="5">
-        <v>6.9675965414470706</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>4.6450643609647146</v>
       </c>
       <c r="Z12" s="5">
         <v>12.311308794101603</v>
       </c>
       <c r="AA12" s="5">
-        <v>3.4837982707235353</v>
+        <v>6.9675965414470706</v>
       </c>
       <c r="AB12" s="5">
-        <v>2.3225321804823573</v>
+        <v>4.6450643609647146</v>
       </c>
       <c r="AC12" s="5">
         <v>12.311308794101603</v>
       </c>
-      <c r="AE12" s="23">
-        <v>2.0518847990169338</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AG12" s="22" t="b">
-        <v>0</v>
+      <c r="AD12" s="5">
+        <v>3.4837982707235353</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>2.3225321804823573</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>12.311308794101603</v>
       </c>
       <c r="AH12" s="22">
         <v>400</v>
@@ -1835,10 +1851,10 @@
     </row>
     <row r="13" spans="1:34">
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>4</v>
@@ -1846,84 +1862,83 @@
       <c r="E13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="F13" s="22">
+        <v>92.570416666666645</v>
+      </c>
+      <c r="H13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
         <v>58.304998124999997</v>
       </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
         <v>83.313374999999994</v>
       </c>
-      <c r="L13" s="12">
+      <c r="O13" s="12">
         <v>172.26476718749998</v>
       </c>
-      <c r="M13" s="12">
+      <c r="P13" s="12">
         <v>68.087137499999997</v>
       </c>
-      <c r="N13" s="12">
+      <c r="Q13" s="12">
         <v>277.71124999999995</v>
       </c>
-      <c r="O13" s="13">
+      <c r="R13" s="13">
         <v>66.255679687500006</v>
       </c>
-      <c r="P13" s="13">
+      <c r="S13" s="13">
         <v>45.391424999999998</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="T13" s="13">
         <v>83.313374999999994</v>
       </c>
-      <c r="R13" s="13">
+      <c r="U13" s="13">
         <v>92.757951562499997</v>
       </c>
-      <c r="S13" s="13">
+      <c r="V13" s="13">
         <v>68.087137499999997</v>
       </c>
-      <c r="T13" s="13">
+      <c r="W13" s="13">
         <v>111.08449999999999</v>
       </c>
-      <c r="U13" s="13">
+      <c r="X13" s="13">
         <v>58.304998124999997</v>
       </c>
-      <c r="V13" s="13">
+      <c r="Y13" s="13">
         <v>45.391424999999998</v>
       </c>
-      <c r="W13" s="13">
+      <c r="Z13" s="13">
         <v>83.313374999999994</v>
       </c>
-      <c r="X13" s="13">
+      <c r="AA13" s="13">
         <v>87.457497187499996</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>68.087137499999997</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>99.976049999999987</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>304.7761265625</v>
       </c>
       <c r="AB13" s="13">
         <v>68.087137499999997</v>
       </c>
       <c r="AC13" s="13">
+        <v>99.976049999999987</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>304.7761265625</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>68.087137499999997</v>
+      </c>
+      <c r="AF13" s="13">
         <v>555.4224999999999</v>
-      </c>
-      <c r="AE13" s="22">
-        <v>92.570416666666645</v>
-      </c>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="22" t="b">
-        <v>0</v>
       </c>
       <c r="AH13" s="22">
         <v>400</v>
@@ -1931,10 +1946,10 @@
     </row>
     <row r="14" spans="1:34">
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>5</v>
@@ -1942,13 +1957,10 @@
       <c r="E14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="F14" s="25">
+        <v>2.9453507079200237E-4</v>
+      </c>
+      <c r="H14" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="10">
@@ -1969,14 +1981,14 @@
       <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="O14" s="21">
-        <v>1.472675353960012E-3</v>
-      </c>
-      <c r="P14" s="21">
-        <v>1.1781402831680095E-3</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>1.7672104247520141E-3</v>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
       </c>
       <c r="R14" s="21">
         <v>1.472675353960012E-3</v>
@@ -1988,13 +2000,13 @@
         <v>1.7672104247520141E-3</v>
       </c>
       <c r="U14" s="21">
-        <v>5.6837137006959858E-4</v>
+        <v>1.472675353960012E-3</v>
       </c>
       <c r="V14" s="21">
-        <v>4.5469709605567887E-4</v>
+        <v>1.1781402831680095E-3</v>
       </c>
       <c r="W14" s="21">
-        <v>6.8204564408351823E-4</v>
+        <v>1.7672104247520141E-3</v>
       </c>
       <c r="X14" s="21">
         <v>5.6837137006959858E-4</v>
@@ -2014,12 +2026,14 @@
       <c r="AC14" s="21">
         <v>6.8204564408351823E-4</v>
       </c>
-      <c r="AE14" s="25">
-        <v>2.9453507079200237E-4</v>
-      </c>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="22" t="b">
-        <v>0</v>
+      <c r="AD14" s="21">
+        <v>5.6837137006959858E-4</v>
+      </c>
+      <c r="AE14" s="21">
+        <v>4.5469709605567887E-4</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>6.8204564408351823E-4</v>
       </c>
       <c r="AH14" s="22">
         <v>400.00000000000011</v>
@@ -2063,9 +2077,6 @@
     </row>
     <row r="16" spans="1:34">
       <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2087,100 +2098,95 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH16" s="28">
-        <v>400.00000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8">
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="28"/>
+    </row>
+    <row r="17" spans="4:11">
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="4:8">
+    </row>
+    <row r="18" spans="4:11">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:8">
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="4:8">
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="4:8">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="4:8">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="4:8">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="4:8">
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="4:8">
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="4:8">
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="4:8">
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="4:8">
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="4:8">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="4:8">
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="4:8">
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="7:8">
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+    <row r="19" spans="4:11">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F4:AC4">
+  <conditionalFormatting sqref="I4:AF4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2192,7 +2198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:AC5">
+  <conditionalFormatting sqref="I5:AF5">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2204,7 +2210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AC6">
+  <conditionalFormatting sqref="I6:AF6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2216,7 +2222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:AC7">
+  <conditionalFormatting sqref="I7:AF7">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2228,7 +2234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:AC8">
+  <conditionalFormatting sqref="I8:AF8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2240,7 +2246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:AC9">
+  <conditionalFormatting sqref="I9:AF9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2252,7 +2258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:AC10">
+  <conditionalFormatting sqref="I10:AF10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2264,7 +2270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:AC11">
+  <conditionalFormatting sqref="I11:AF11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2276,7 +2282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:AC13">
+  <conditionalFormatting sqref="I13:AF13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2288,7 +2294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:AC14">
+  <conditionalFormatting sqref="I14:AF14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2300,7 +2306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:AC12">
+  <conditionalFormatting sqref="I12:AF12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
